--- a/artfynd/A 71570-2021.xlsx
+++ b/artfynd/A 71570-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,354 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112105307</v>
+      </c>
+      <c r="B3" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>446544.2690787801</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7032737.655252043</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112105366</v>
+      </c>
+      <c r="B4" t="n">
+        <v>84808</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>236435</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Droppklibbskivling</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Limacella guttata</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Pers. : Fr.) Konrad &amp; Maubl.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>446547.3108286796</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7032731.78096032</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112105682</v>
+      </c>
+      <c r="B5" t="n">
+        <v>88956</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>446627.1477181673</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7032919.480234488</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 71570-2021.xlsx
+++ b/artfynd/A 71570-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112105307</v>
+        <v>112105682</v>
       </c>
       <c r="B3" t="n">
-        <v>88966</v>
+        <v>88956</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5754</v>
+        <v>5747</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,14 +836,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446544.2690787801</v>
+        <v>446627.1477181673</v>
       </c>
       <c r="R3" t="n">
-        <v>7032737.655252043</v>
+        <v>7032919.480234488</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112105366</v>
+        <v>112105307</v>
       </c>
       <c r="B4" t="n">
-        <v>84808</v>
+        <v>88966</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>236435</v>
+        <v>5754</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Droppklibbskivling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Limacella guttata</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers. : Fr.) Konrad &amp; Maubl.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>446547.3108286796</v>
+        <v>446544.2690787801</v>
       </c>
       <c r="R4" t="n">
-        <v>7032731.78096032</v>
+        <v>7032737.655252043</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112105682</v>
+        <v>112105366</v>
       </c>
       <c r="B5" t="n">
-        <v>88956</v>
+        <v>84808</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1041,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5747</v>
+        <v>236435</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Droppklibbskivling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Limacella guttata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Pers. : Fr.) Konrad &amp; Maubl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,14 +1068,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446627.1477181673</v>
+        <v>446547.3108286796</v>
       </c>
       <c r="R5" t="n">
-        <v>7032919.480234488</v>
+        <v>7032731.78096032</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 71570-2021.xlsx
+++ b/artfynd/A 71570-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,6 +1143,108 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112213267</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Ol-olssvarttjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>446536</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7032714</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Alsen</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 71570-2021.xlsx
+++ b/artfynd/A 71570-2021.xlsx
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446627.1477181673</v>
+        <v>446627</v>
       </c>
       <c r="R3" t="n">
-        <v>7032919.480234488</v>
+        <v>7032919</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,19 +873,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +903,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112105307</v>
+        <v>112105366</v>
       </c>
       <c r="B4" t="n">
-        <v>88966</v>
+        <v>84808</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +915,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5754</v>
+        <v>236435</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Droppklibbskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Limacella guttata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers. : Fr.) Konrad &amp; Maubl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -956,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>446544.2690787801</v>
+        <v>446547</v>
       </c>
       <c r="R4" t="n">
-        <v>7032737.655252043</v>
+        <v>7032732</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,19 +979,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,10 +1009,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112105366</v>
+        <v>112105307</v>
       </c>
       <c r="B5" t="n">
-        <v>84808</v>
+        <v>88966</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1021,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>236435</v>
+        <v>5754</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Droppklibbskivling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Limacella guttata</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers. : Fr.) Konrad &amp; Maubl.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1072,10 +1052,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446547.3108286796</v>
+        <v>446544</v>
       </c>
       <c r="R5" t="n">
-        <v>7032731.78096032</v>
+        <v>7032738</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1105,19 +1085,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 71570-2021.xlsx
+++ b/artfynd/A 71570-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112105682</v>
+        <v>112105307</v>
       </c>
       <c r="B3" t="n">
-        <v>88956</v>
+        <v>89100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5747</v>
+        <v>5754</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,14 +836,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446627</v>
+        <v>446544</v>
       </c>
       <c r="R3" t="n">
-        <v>7032919</v>
+        <v>7032738</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
         <v>112105366</v>
       </c>
       <c r="B4" t="n">
-        <v>84808</v>
+        <v>84929</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112105307</v>
+        <v>112105682</v>
       </c>
       <c r="B5" t="n">
-        <v>88966</v>
+        <v>89090</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1021,25 +1021,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5754</v>
+        <v>5747</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1048,14 +1048,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446544</v>
+        <v>446627</v>
       </c>
       <c r="R5" t="n">
-        <v>7032738</v>
+        <v>7032919</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1118,7 @@
         <v>112213267</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 71570-2021.xlsx
+++ b/artfynd/A 71570-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112105307</v>
+        <v>112105682</v>
       </c>
       <c r="B3" t="n">
-        <v>89100</v>
+        <v>89104</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5754</v>
+        <v>5747</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,14 +836,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446544</v>
+        <v>446627</v>
       </c>
       <c r="R3" t="n">
-        <v>7032738</v>
+        <v>7032919</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
         <v>112105366</v>
       </c>
       <c r="B4" t="n">
-        <v>84929</v>
+        <v>84943</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112105682</v>
+        <v>112105307</v>
       </c>
       <c r="B5" t="n">
-        <v>89090</v>
+        <v>89114</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1021,25 +1021,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5747</v>
+        <v>5754</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1048,14 +1048,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446627</v>
+        <v>446544</v>
       </c>
       <c r="R5" t="n">
-        <v>7032919</v>
+        <v>7032738</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1118,7 @@
         <v>112213267</v>
       </c>
       <c r="B6" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 71570-2021.xlsx
+++ b/artfynd/A 71570-2021.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112105682</v>
+        <v>112105366</v>
       </c>
       <c r="B3" t="n">
-        <v>89104</v>
+        <v>84943</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5747</v>
+        <v>236435</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Droppklibbskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Limacella guttata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Pers. : Fr.) Konrad &amp; Maubl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,14 +836,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
+          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446627</v>
+        <v>446547</v>
       </c>
       <c r="R3" t="n">
-        <v>7032919</v>
+        <v>7032732</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112105366</v>
+        <v>112105682</v>
       </c>
       <c r="B4" t="n">
-        <v>84943</v>
+        <v>89104</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -915,25 +915,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>236435</v>
+        <v>5747</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Droppklibbskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Limacella guttata</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers. : Fr.) Konrad &amp; Maubl.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -942,14 +942,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Landverktjärnen (Landverktjärnen), Jmt</t>
+          <t>Svensbergsbäcken (Svensbergsbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>446547</v>
+        <v>446627</v>
       </c>
       <c r="R4" t="n">
-        <v>7032732</v>
+        <v>7032919</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
